--- a/Experiment 3 - Indoors 5GHz/House testing results 5GHz.xlsx
+++ b/Experiment 3 - Indoors 5GHz/House testing results 5GHz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6bcb7461c737c24/Documents/3rd Year - Final/CE301 - Individual project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6bcb7461c737c24/Documents/3rd Year - Final/GitLab/Experiment 3 - Indoors 5GHz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="14_{E375FCAB-CE37-42B7-AE3A-B5CF036AC41D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5B319BB8-D67D-42DD-8C4A-B42DBD9044B0}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="14_{E375FCAB-CE37-42B7-AE3A-B5CF036AC41D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{11B5DD67-0E39-4417-BA44-5D3AA636F249}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF794EFB-C89B-4257-81B2-5EE4F049F6B7}"/>
   </bookViews>
@@ -921,6 +921,20 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7634E97-9B18-4330-8CCD-0E0C84DD3320}" name="Table1" displayName="Table1" ref="A3:B28" totalsRowShown="0">
+  <autoFilter ref="A3:B28" xr:uid="{E918B3F3-E56E-4D53-946F-2EE0DFC58423}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{46A1A595-6C72-4D8F-8ED1-79C3DEF8BBFF}" name="Area"/>
+    <tableColumn id="2" xr3:uid="{29CB3F41-E833-4FB9-8FF3-AE3488F4F59D}" name="Signal Strength (dbm)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1220,14 +1234,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B65B37D-9DAA-4170-88F4-97145766A129}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1446,5 +1460,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Experiment 3 - Indoors 5GHz/House testing results 5GHz.xlsx
+++ b/Experiment 3 - Indoors 5GHz/House testing results 5GHz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6bcb7461c737c24/Documents/3rd Year - Final/GitLab/Experiment 3 - Indoors 5GHz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="14_{E375FCAB-CE37-42B7-AE3A-B5CF036AC41D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{11B5DD67-0E39-4417-BA44-5D3AA636F249}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="14_{E375FCAB-CE37-42B7-AE3A-B5CF036AC41D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{21F54FEA-B523-41ED-8BA7-31AF83F0698E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF794EFB-C89B-4257-81B2-5EE4F049F6B7}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Signal Strength (dbm)</t>
-  </si>
-  <si>
     <t>Corridor(North side)</t>
   </si>
   <si>
@@ -89,15 +86,6 @@
     <t>2nd floor room (NE side)</t>
   </si>
   <si>
-    <t>3rd floor room (SE side)</t>
-  </si>
-  <si>
-    <t>4th floor room (SW side)</t>
-  </si>
-  <si>
-    <t>5th floor room (NW side)</t>
-  </si>
-  <si>
     <t>Room open</t>
   </si>
   <si>
@@ -123,6 +111,18 @@
   </si>
   <si>
     <t>3rd floor passage</t>
+  </si>
+  <si>
+    <t>2nd floor room (SE side)</t>
+  </si>
+  <si>
+    <t>2nd floor room (SW side)</t>
+  </si>
+  <si>
+    <t>2nd floor room (NW side)</t>
+  </si>
+  <si>
+    <t>Signal Strength (dBm)</t>
   </si>
 </sst>
 </file>
@@ -224,7 +224,7 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>Signal Strength (dbm)</cx:v>
+              <cx:v>Signal Strength (dBm)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -887,7 +887,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3489960" y="438150"/>
+              <a:off x="3710940" y="438150"/>
               <a:ext cx="6179820" cy="4347210"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -929,7 +929,7 @@
   </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{46A1A595-6C72-4D8F-8ED1-79C3DEF8BBFF}" name="Area"/>
-    <tableColumn id="2" xr3:uid="{29CB3F41-E833-4FB9-8FF3-AE3488F4F59D}" name="Signal Strength (dbm)"/>
+    <tableColumn id="2" xr3:uid="{29CB3F41-E833-4FB9-8FF3-AE3488F4F59D}" name="Signal Strength (dBm)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B65B37D-9DAA-4170-88F4-97145766A129}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,12 +1254,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>-77</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>-55</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>-19</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>-47</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>-61</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>-44</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>-25</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>-68</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>-66</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>-69</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>-57</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>-45</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>-69</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>-82</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>-70</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>-64</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>-64</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>-70</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>-82</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>-77</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>-82</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>-82</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>-58</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>-65</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>-61</v>

--- a/Experiment 3 - Indoors 5GHz/House testing results 5GHz.xlsx
+++ b/Experiment 3 - Indoors 5GHz/House testing results 5GHz.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B65B37D-9DAA-4170-88F4-97145766A129}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
